--- a/biology/Botanique/Centrosema/Centrosema.xlsx
+++ b/biology/Botanique/Centrosema/Centrosema.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Centrosema est un genre de plantes dicotylédones de la famille des Fabaceae (légumineuses), sous-famille des Faboideae, originaire d'Amérique et d'Australie, qui comprend une cinquantaine d'espèces acceptées[2].
-Ce sont  des plantes herbacées ou  des sous-arbrisseaux. Certaines espèces sont cultivées comme plantes fourragères qui peuvent largement supporter des conditions climatiques extrêmes. On les emploie aussi comme cultures de couverture et engrais vert[3].
+Centrosema est un genre de plantes dicotylédones de la famille des Fabaceae (légumineuses), sous-famille des Faboideae, originaire d'Amérique et d'Australie, qui comprend une cinquantaine d'espèces acceptées.
+Ce sont  des plantes herbacées ou  des sous-arbrisseaux. Certaines espèces sont cultivées comme plantes fourragères qui peuvent largement supporter des conditions climatiques extrêmes. On les emploie aussi comme cultures de couverture et engrais vert.
 Les chenilles de lépidoptères qui se nourrissent sur ce genre de plantes comprennent Astraptes fulgerator retrouvé au moins parfois sur Centrosema macrocarpum et Centrosema plumieri.
 </t>
         </is>
@@ -514,9 +526,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (23 décembre 2018)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (23 décembre 2018) :
 Centrosema acutifolium Benth.
 Centrosema angustifolium (Kunth) Benth.
 Centrosema arenarium Benth.
